--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1391761.555592463</v>
+        <v>-1394622.369384755</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.55518202532696</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>244.8448976285501</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>17.00184265631211</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>126.8838859631191</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>81.23711280724298</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>174.1382159148023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>39.13625793941087</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>104.1383913127194</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>97.26234557100801</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>46.60826130684158</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>149.7685012844055</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>80.54054354495941</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.91114126833927</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>15.85533654003679</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>315.1268538421529</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819519</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411815033</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177535</v>
+        <v>127.8724504177537</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>98.89532502174016</v>
       </c>
       <c r="G9" t="n">
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696367</v>
+        <v>93.8339267169637</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906613</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858445</v>
+        <v>136.2924232858446</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346715</v>
@@ -1269,7 +1269,7 @@
         <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
-        <v>141.3664192522405</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169637</v>
+        <v>105.4699075169638</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>196.178826391195</v>
       </c>
       <c r="T10" t="n">
         <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>231.2177627045104</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5780840140134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="G13" t="n">
-        <v>18.16423677622371</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.03063761899501</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.49605685438627</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>160.3783204776929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>136.7593194687121</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>143.1086912616885</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002292</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3266,13 +3266,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002292</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799753</v>
+        <v>53.98113264792551</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.4282065123045</v>
+        <v>38.2706888408398</v>
       </c>
       <c r="C3" t="n">
-        <v>307.4282065123045</v>
+        <v>38.2706888408398</v>
       </c>
       <c r="D3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4407,25 +4407,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>729.8809002605742</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>729.8809002605742</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="W3" t="n">
-        <v>475.6435435323726</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="X3" t="n">
-        <v>475.6435435323726</v>
+        <v>38.2706888408398</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.6435435323726</v>
+        <v>38.2706888408398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>615.2521776787694</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>446.3159947508624</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>446.3159947508624</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4489,19 +4489,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>972.7978303017387</v>
+        <v>581.6908288493579</v>
       </c>
       <c r="V4" t="n">
-        <v>796.9006425090091</v>
+        <v>327.006340643471</v>
       </c>
       <c r="W4" t="n">
-        <v>796.9006425090091</v>
+        <v>60.6286840762931</v>
       </c>
       <c r="X4" t="n">
-        <v>796.9006425090091</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>796.9006425090091</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4547,16 +4547,16 @@
         <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044908</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044908</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552873</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818428</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
         <v>137.5684432757741</v>
@@ -4565,52 +4565,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388465</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388465</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592.7666630722899</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C6" t="n">
-        <v>418.3136337911629</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D6" t="n">
-        <v>371.2345819660704</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F6" t="n">
         <v>65.46256898749988</v>
@@ -4644,52 +4644,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278861</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006024</v>
+        <v>659.7474918534679</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006024</v>
+        <v>424.5953836217251</v>
       </c>
       <c r="W6" t="n">
-        <v>800.6181632778228</v>
+        <v>424.5953836217251</v>
       </c>
       <c r="X6" t="n">
-        <v>592.7666630722899</v>
+        <v>216.7438834161923</v>
       </c>
       <c r="Y6" t="n">
-        <v>592.7666630722899</v>
+        <v>65.46256898749988</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.2217926073725</v>
+        <v>252.5678342013041</v>
       </c>
       <c r="C7" t="n">
-        <v>187.2856096794656</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D7" t="n">
-        <v>37.16897026712985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>37.16897026712985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>37.16897026712985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>37.16897026712985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
         <v>21.09711040012049</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745504</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>356.2217926073725</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>356.2217926073725</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="W7" t="n">
-        <v>356.2217926073725</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="X7" t="n">
-        <v>356.2217926073725</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.2217926073725</v>
+        <v>434.2162990315438</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1247.684183178701</v>
+        <v>1478.993300852076</v>
       </c>
       <c r="C8" t="n">
-        <v>1231.668691724118</v>
+        <v>1110.030783911665</v>
       </c>
       <c r="D8" t="n">
-        <v>873.4029931173675</v>
+        <v>751.7650853049142</v>
       </c>
       <c r="E8" t="n">
-        <v>873.4029931173675</v>
+        <v>751.7650853049142</v>
       </c>
       <c r="F8" t="n">
-        <v>462.4170883277599</v>
+        <v>744.8195845557108</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181683</v>
+        <v>426.5096311797987</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181683</v>
+        <v>120.443861097019</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229159</v>
+        <v>166.4989367229151</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677486</v>
+        <v>397.060171667747</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937562</v>
+        <v>719.9935330937533</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721575</v>
+        <v>1110.988557721571</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999418</v>
+        <v>1512.924098999413</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830554</v>
+        <v>1879.125171830548</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.16831427172</v>
+        <v>2157.168314271713</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.79438825758</v>
+        <v>2317.794388257572</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590841</v>
+        <v>2325.820119590833</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259777</v>
+        <v>2196.656028259769</v>
       </c>
       <c r="T8" t="n">
-        <v>1987.052678512936</v>
+        <v>2196.656028259769</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.052678512936</v>
+        <v>2196.656028259769</v>
       </c>
       <c r="V8" t="n">
-        <v>1987.052678512936</v>
+        <v>1865.593140916198</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.284023242822</v>
+        <v>1865.593140916198</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.284023242822</v>
+        <v>1865.593140916198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.284023242822</v>
+        <v>1865.593140916198</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.7659619054695</v>
+        <v>860.6235535748372</v>
       </c>
       <c r="C9" t="n">
-        <v>610.3129326243425</v>
+        <v>686.1705242937102</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3785229630913</v>
+        <v>537.2361146324589</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1410679576358</v>
+        <v>377.9986596270034</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576358</v>
+        <v>278.104391928276</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797257</v>
+        <v>141.2981465503659</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117655</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977922</v>
+        <v>99.15933091977871</v>
       </c>
       <c r="K9" t="n">
-        <v>267.289305341282</v>
+        <v>415.0035170892934</v>
       </c>
       <c r="L9" t="n">
-        <v>539.683345633696</v>
+        <v>990.6439966880246</v>
       </c>
       <c r="M9" t="n">
-        <v>1115.323825232429</v>
+        <v>1327.871861884687</v>
       </c>
       <c r="N9" t="n">
-        <v>1480.457275277538</v>
+        <v>1688.433790136022</v>
       </c>
       <c r="O9" t="n">
-        <v>1788.081202938425</v>
+        <v>1996.057717796909</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.64345924754</v>
+        <v>2223.619974106024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590841</v>
+        <v>2325.820119590833</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590841</v>
+        <v>2325.820119590833</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160696</v>
+        <v>2188.151005160687</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661028</v>
+        <v>1993.721818661019</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505277</v>
+        <v>1765.624817505268</v>
       </c>
       <c r="V9" t="n">
-        <v>1622.830454624226</v>
+        <v>1530.472709273525</v>
       </c>
       <c r="W9" t="n">
-        <v>1368.593097896024</v>
+        <v>1276.235352545324</v>
       </c>
       <c r="X9" t="n">
-        <v>1160.741597690491</v>
+        <v>1068.383852339791</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.9812989255374</v>
+        <v>860.6235535748372</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.5269400032992</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="C10" t="n">
-        <v>214.5907570753922</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="D10" t="n">
-        <v>214.5907570753922</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="E10" t="n">
-        <v>214.5907570753922</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="F10" t="n">
-        <v>214.5907570753922</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181666</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909538</v>
+        <v>65.89540801909499</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736016</v>
+        <v>227.5779039736009</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632613</v>
+        <v>490.0022680632601</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794047</v>
+        <v>777.081088479403</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620619</v>
+        <v>1062.768432620617</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257115</v>
+        <v>1310.630639257112</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325117</v>
+        <v>1499.198894325114</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718231</v>
+        <v>1546.318699718227</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600086</v>
+        <v>1439.783439600082</v>
       </c>
       <c r="S10" t="n">
-        <v>1241.623008901909</v>
+        <v>1241.623008901905</v>
       </c>
       <c r="T10" t="n">
-        <v>1018.26899813145</v>
+        <v>1018.268998131446</v>
       </c>
       <c r="U10" t="n">
-        <v>729.1458666357317</v>
+        <v>1018.268998131446</v>
       </c>
       <c r="V10" t="n">
-        <v>729.1458666357317</v>
+        <v>784.7157024703247</v>
       </c>
       <c r="W10" t="n">
-        <v>604.3195191468293</v>
+        <v>495.2985324333641</v>
       </c>
       <c r="X10" t="n">
-        <v>604.3195191468293</v>
+        <v>267.3089815353468</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5269400032992</v>
+        <v>46.51640239181666</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732377</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>335.9629114732377</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
         <v>317.6151975578602</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>800.5007694647277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>650.3841300523919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,7 +6260,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.363146234998</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2015.761681257939</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1726.686454602137</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>417.9651836029414</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6850,7 +6850,7 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.154262550759</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,10 +7585,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544042</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.78351343583176</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>149.2062744929419</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>306.3095346528463</v>
       </c>
       <c r="M9" t="n">
-        <v>240.8208226283531</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.617698781588047</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864777</v>
+        <v>27.38164655864801</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-4.183517034292282e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>350.1786596381536</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>215.4925456115642</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>167.9892770171598</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>98.97060154043554</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>77.99942740902567</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>186.5733974496263</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8997516911</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3599015160451</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.9379057921829</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>58.20633287440185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>80.64613085857621</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>37.91759473995606</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26317,31 +26317,31 @@
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
         <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="J2" t="n">
         <v>161429.3199380013</v>
       </c>
-      <c r="J2" t="n">
-        <v>161429.3199380011</v>
-      </c>
       <c r="K2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728568</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512981</v>
+        <v>331437.522851296</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424113</v>
+        <v>563905.7843424133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201198</v>
+        <v>99845.1433620114</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569558</v>
+        <v>147342.6769569563</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
-        <v>153791.3594476897</v>
+        <v>153791.3594476904</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756599</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985003</v>
       </c>
       <c r="N4" t="n">
         <v>17328.05961985004</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985009</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985007</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.7954654358</v>
+        <v>88290.79546543566</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-774067.9258294111</v>
+        <v>-774428.0088451285</v>
       </c>
       <c r="C6" t="n">
         <v>-147382.7159179563</v>
       </c>
       <c r="D6" t="n">
-        <v>-409311.323791567</v>
+        <v>-409311.3237915654</v>
       </c>
       <c r="E6" t="n">
-        <v>-512936.1945850738</v>
+        <v>-512970.9325105114</v>
       </c>
       <c r="F6" t="n">
-        <v>50969.58975733751</v>
+        <v>50934.85183190191</v>
       </c>
       <c r="G6" t="n">
-        <v>50969.58975733751</v>
+        <v>50934.85183190188</v>
       </c>
       <c r="H6" t="n">
-        <v>50969.58975733751</v>
+        <v>50934.85183190176</v>
       </c>
       <c r="I6" t="n">
-        <v>50969.58975733757</v>
+        <v>50934.85183190185</v>
       </c>
       <c r="J6" t="n">
-        <v>-18029.56466177665</v>
+        <v>-18064.30258721215</v>
       </c>
       <c r="K6" t="n">
-        <v>50969.58975733751</v>
+        <v>50934.85183190189</v>
       </c>
       <c r="L6" t="n">
-        <v>-56128.96486292071</v>
+        <v>-56128.96486292</v>
       </c>
       <c r="M6" t="n">
-        <v>-103626.4984578645</v>
+        <v>-103626.498457865</v>
       </c>
       <c r="N6" t="n">
-        <v>43716.17849909136</v>
+        <v>43716.17849909133</v>
       </c>
       <c r="O6" t="n">
-        <v>43716.17849909115</v>
+        <v>43716.17849909124</v>
       </c>
       <c r="P6" t="n">
-        <v>43716.17849909124</v>
+        <v>43716.1784990913</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896799</v>
+        <v>885.8132865896782</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977103</v>
+        <v>581.4550298977083</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,19 +26814,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202017</v>
+        <v>271.7582728202</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519938</v>
+        <v>482.1622137519955</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962042</v>
+        <v>317.7411498962022</v>
       </c>
       <c r="E4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019401</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962042</v>
+        <v>317.7411498962019</v>
       </c>
       <c r="M4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019403</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962042</v>
+        <v>317.7411498962022</v>
       </c>
       <c r="M4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>139.1904960091187</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>130.4432229083266</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
@@ -27506,7 +27506,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>205.0215176954345</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>302.7376544289921</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>216.93128705826</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>100.8368042577972</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>55.91419449289884</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>86.70627755366843</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>136.4710180675175</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>349.4175552309708</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>96.61482523443067</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815005</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
         <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>46.17388737164372</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906626</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>91.43416789718475</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
         <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>107.4132560413787</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>20.91988061931758</v>
       </c>
       <c r="W10" t="n">
-        <v>162.9449143225776</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30760,10 +30760,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551474</v>
+        <v>3.561058438551468</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381529</v>
+        <v>36.46968973381523</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522559</v>
+        <v>137.2877054522556</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490085</v>
+        <v>302.2403836490079</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528925</v>
+        <v>452.9799873528916</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417123</v>
+        <v>561.9617295417112</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483021</v>
+        <v>625.2907025483008</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368365</v>
+        <v>635.4085598368353</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884902</v>
+        <v>599.9982849884891</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867505</v>
+        <v>512.0846547867496</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561258</v>
+        <v>384.554249456125</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406592</v>
+        <v>223.6923371406588</v>
       </c>
       <c r="S8" t="n">
-        <v>81.1476191684918</v>
+        <v>81.14761916849164</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475909</v>
+        <v>15.58853331475906</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841179</v>
+        <v>0.2848846750841174</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079689</v>
+        <v>1.905334239079685</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953279</v>
+        <v>18.40151751953275</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234895</v>
+        <v>65.60032358234882</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474368</v>
+        <v>180.0123019474364</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657759</v>
+        <v>307.6696959657754</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247369</v>
+        <v>413.6998750247361</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913755</v>
+        <v>482.7682411913746</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139758</v>
+        <v>495.5456800139748</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059469</v>
+        <v>453.327484505946</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730329</v>
+        <v>363.8352723730322</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726986</v>
+        <v>243.2142442726981</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053162</v>
+        <v>118.2978574053159</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799332</v>
+        <v>35.39074781799325</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150147</v>
+        <v>7.679834060150132</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815585</v>
+        <v>0.1253509367815583</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719095</v>
+        <v>1.597368221719092</v>
       </c>
       <c r="H10" t="n">
-        <v>14.2020556440116</v>
+        <v>14.20205564401157</v>
       </c>
       <c r="I10" t="n">
-        <v>48.0372188858797</v>
+        <v>48.03721888587961</v>
       </c>
       <c r="J10" t="n">
-        <v>112.93393327554</v>
+        <v>112.9339332755398</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051821</v>
+        <v>185.5851443051817</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817644</v>
+        <v>237.4850899817639</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191122</v>
+        <v>250.3947295191118</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108867</v>
+        <v>244.4409025108863</v>
       </c>
       <c r="O10" t="n">
-        <v>225.78073737535</v>
+        <v>225.7807373753495</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522803</v>
+        <v>193.1944256522799</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750417</v>
+        <v>133.7578062750414</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020583</v>
+        <v>71.82348386020568</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577731</v>
+        <v>27.83777164577725</v>
       </c>
       <c r="T10" t="n">
-        <v>6.82511876552704</v>
+        <v>6.825118765527026</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013254</v>
+        <v>0.08712917573013237</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>454.5606621218849</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399242</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>463.4789474089069</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>638.9422653403558</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N39" t="n">
-        <v>578.1083652167725</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>404.0195168876591</v>
+        <v>531.8166820790243</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35024,10 +35024,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>217.4386117456598</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223222</v>
+        <v>121.1944791223216</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079119</v>
+        <v>232.8901363079111</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717251</v>
+        <v>326.1953145717239</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210294</v>
+        <v>394.9444693210281</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402456</v>
+        <v>405.9954962402443</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668035</v>
+        <v>369.9000735668023</v>
       </c>
       <c r="P8" t="n">
-        <v>280.851659031481</v>
+        <v>280.8516590314801</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816763</v>
+        <v>162.2485595816756</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527124</v>
+        <v>8.106799326526698</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077009</v>
+        <v>53.17467528076975</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914169</v>
+        <v>319.0345314843582</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448627</v>
+        <v>581.4550298977083</v>
       </c>
       <c r="M9" t="n">
-        <v>581.4550298977103</v>
+        <v>340.6342072693562</v>
       </c>
       <c r="N9" t="n">
-        <v>368.8216667122306</v>
+        <v>364.2039679306415</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615024</v>
+        <v>310.7312400615015</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587027</v>
+        <v>229.860864958702</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225262</v>
+        <v>103.2324701866766</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886722</v>
+        <v>19.574753158867</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792992</v>
+        <v>163.3156524792988</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420805</v>
+        <v>265.0751152420801</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809529</v>
+        <v>289.9786064809524</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901153</v>
+        <v>288.5730748901149</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893896</v>
+        <v>250.3658652893892</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171738</v>
+        <v>190.4729849171734</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334729</v>
+        <v>47.59576302334703</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>316.7192231475259</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>134.202553156591</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>325.6375084345479</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>496.3460208959114</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7666531334392</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>265.4651371077849</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
